--- a/Documents/Matrice_Di_Tracciabilità/Matrice_di_Tracciabilità_V2.xlsx
+++ b/Documents/Matrice_Di_Tracciabilità/Matrice_di_Tracciabilità_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39392\Desktop\Università\ingegneria del software\progetto\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/UniSa/Documents/GitHub/EasyLease/Documents/Matrice_Di_Tracciabilità/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF37B6-6A4E-4CC3-838F-D448FF0A3BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5706A163-05D5-9C41-97D2-5E5B6AEDCE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3928BD3C-FD03-4946-940B-BEF6AA20EF70}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="20140" xr2:uid="{3928BD3C-FD03-4946-940B-BEF6AA20EF70}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,9 +101,6 @@
     <t>Di Dario Dario</t>
   </si>
   <si>
-    <t>Sistema di leasing online che permette all'azienda AutoErre la gestione dei noleggi più facile e veloce e consente agli utenti di effettuare un noleggio senza la necessità di recarsi in concessionaria</t>
-  </si>
-  <si>
     <t>RF1.1</t>
   </si>
   <si>
@@ -589,6 +585,9 @@
   </si>
   <si>
     <t>Lato Utente registrato, Utente non registrato</t>
+  </si>
+  <si>
+    <t>Sistema di leasing online che permette all'azienda AutoErre la gestione dei noleggi in modo  facile e veloce e consente agli utenti di effettuare un noleggio senza la necessità di recarsi in concessionaria</t>
   </si>
 </sst>
 </file>
@@ -1345,29 +1344,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37458C4-3A7C-4F95-8212-3BA6F37E214D}">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" customWidth="1"/>
-    <col min="7" max="7" width="34.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="O1" s="24"/>
       <c r="P1" s="25"/>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
@@ -1409,7 +1408,7 @@
       <c r="O2" s="33"/>
       <c r="P2" s="34"/>
     </row>
-    <row r="3" spans="1:16" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
@@ -1431,12 +1430,12 @@
       <c r="O3" s="30"/>
       <c r="P3" s="31"/>
     </row>
-    <row r="4" spans="1:16" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1453,7 +1452,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
@@ -1503,1207 +1502,1207 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="E7" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I27" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="J27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="H29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J29" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -2721,7 +2720,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -2739,7 +2738,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -2757,7 +2756,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -2775,7 +2774,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -2793,7 +2792,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2811,7 +2810,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -2829,7 +2828,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -2847,7 +2846,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -2865,7 +2864,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -2883,7 +2882,7 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -2901,7 +2900,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -2919,7 +2918,7 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -2937,7 +2936,7 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -2955,7 +2954,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -2973,7 +2972,7 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -2991,7 +2990,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -3009,7 +3008,7 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -3027,7 +3026,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -3045,7 +3044,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -3063,7 +3062,7 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -3081,7 +3080,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -3099,7 +3098,7 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -3117,7 +3116,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -3135,7 +3134,7 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -3153,7 +3152,7 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -3171,7 +3170,7 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -3189,7 +3188,7 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -3207,7 +3206,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -3225,7 +3224,7 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -3243,7 +3242,7 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -3261,7 +3260,7 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -3279,7 +3278,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -3297,7 +3296,7 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -3315,7 +3314,7 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -3333,7 +3332,7 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -3351,7 +3350,7 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -3369,7 +3368,7 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -3387,7 +3386,7 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -3405,7 +3404,7 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -3423,7 +3422,7 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -3441,7 +3440,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -3459,7 +3458,7 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -3477,7 +3476,7 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -3495,7 +3494,7 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -3513,7 +3512,7 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -3531,7 +3530,7 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -3549,7 +3548,7 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -3567,7 +3566,7 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -3585,7 +3584,7 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -3603,7 +3602,7 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -3621,7 +3620,7 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -3639,7 +3638,7 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -3657,7 +3656,7 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -3675,7 +3674,7 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -3693,7 +3692,7 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -3711,7 +3710,7 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -3729,7 +3728,7 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -3747,7 +3746,7 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -3765,7 +3764,7 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -3783,7 +3782,7 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="5"/>
@@ -3801,7 +3800,7 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="5"/>
@@ -3819,7 +3818,7 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="5"/>
